--- a/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
+++ b/Relatório de Acompanhamento Mensal de TCC - V05_2ºsemestre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucass\Downloads\Material de Apoio TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\082150205\Downloads\Material de Apoio TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" tabRatio="818"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="2º Sem - Agosto" sheetId="5" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="50">
   <si>
     <t>RELATÓRIO DE ACOMPANHAMENTO MENSAL DO TCC</t>
   </si>
@@ -206,16 +206,25 @@
     <t>Renan Dias de Oliveira</t>
   </si>
   <si>
+    <t>Leitura de literaturas com temas relacionado ao disperdicio de alimentos. Criação de repositório GitHub.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Preenchimento dos documentos relacionados às entregas exigidas do trabalho de conclusão de curso (TCC).</t>
+  </si>
+  <si>
+    <t>Ranan Dias de Oliveira</t>
+  </si>
+  <si>
     <t>Engenharia da Computação</t>
   </si>
   <si>
     <t>Eduardo Savino Gomes</t>
   </si>
   <si>
-    <t>Relatório de acompanhamento Mensal TCC</t>
-  </si>
-  <si>
-    <t>Mês de referência: Agosto</t>
+    <t>Redução de disperdicio por excesso de produção.</t>
   </si>
 </sst>
 </file>
@@ -775,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +843,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,21 +868,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,7 +1075,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,47 +1086,7 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -1254,7 +1211,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,7 +1343,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1414,7 +1371,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,7 +1383,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1442,7 +1399,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2732,6 +2689,274 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4114" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4115" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4116" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4117" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3031,1360 +3256,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E89CC86-35B6-4AFE-893B-63DCDC1C81F6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>74544</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212607</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>96630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 6" descr="logo_CEFSA">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="74544" y="33130"/>
-          <a:ext cx="2033538" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4122" name="Check Box 26" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4122"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4123" name="Check Box 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4123"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4124" name="Check Box 28" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4124"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4125" name="Check Box 29" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4125"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>149678</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>35378</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4126" name="Check Box 30" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4126"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4127" name="Check Box 31" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4127"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4128" name="Check Box 32" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4128"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4129" name="Check Box 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4129"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4130" name="Check Box 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4130"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4132" name="Check Box 36" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4132"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4133" name="Check Box 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4133"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4134" name="Check Box 38" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4134"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4136" name="Check Box 40" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4136"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4137" name="Check Box 41" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4137"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4138" name="Check Box 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4138"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011240000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438978</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>41416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>357286</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>84309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 7" descr="ftt1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5334828" y="41416"/>
-          <a:ext cx="889858" cy="804893"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>61232</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4140" name="Check Box 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4140"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DADACD4-C5A4-4B74-A9DD-5FD0485FDCC3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4141" name="Check Box 45" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4141"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A8205A-90D6-48E9-807F-4BA4625B330B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4142" name="Check Box 46" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4142"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C0BC62-A9D4-45EA-B4E0-F373D563D010}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8131,7 +7002,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="74544" y="33130"/>
-          <a:ext cx="2036259" cy="635000"/>
+          <a:ext cx="2033538" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8169,13 +7040,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8236,13 +7107,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8303,13 +7174,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8370,13 +7241,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8437,14 +7308,14 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>149678</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>35378</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8504,13 +7375,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8571,13 +7442,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8638,13 +7509,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8705,13 +7576,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8772,13 +7643,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8839,13 +7710,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8906,13 +7777,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8973,13 +7844,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9040,13 +7911,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9107,13 +7978,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>50</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>54428</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9174,13 +8045,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9241,13 +8112,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9259,6 +8130,274 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9234" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9234"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9235" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9235"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9236" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9236"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9237" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9237"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9343,8 +8482,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5330746" y="41416"/>
-          <a:ext cx="891219" cy="804893"/>
+          <a:off x="5334828" y="41416"/>
+          <a:ext cx="889858" cy="804893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9382,13 +8521,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9449,13 +8588,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>61232</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9516,13 +8655,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9583,13 +8722,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9913,10 +9052,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B5:J78"/>
+  <dimension ref="B5:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="70" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73:H73"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="160" zoomScaleNormal="70" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9934,333 +9073,346 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="43" t="str">
+        <f>Plan1!B5</f>
+        <v>Agosto</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="C8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="C9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="D10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="47">
         <v>82150171</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <v>82150205</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="22" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="51">
         <v>82150320</v>
       </c>
-      <c r="I14" s="60">
-        <v>82150320</v>
-      </c>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="64"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="67"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="64"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="64"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="64"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="64"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
@@ -10273,447 +9425,513 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="82"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="78"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="79"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="83"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="83"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="83"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="83"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="62"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="95"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="64"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="79"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="64"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="64"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="79"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="62"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="64"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="65"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="67"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="64"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="79"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="64"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="79"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="54"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="64"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="79"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="64"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="65"/>
-    </row>
-    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="79"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="79"/>
+    </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="79"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="79"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="79"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="79"/>
+    </row>
+    <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="75" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="77" t="s">
+      <c r="H65" s="71"/>
+      <c r="I65" s="72"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H60" s="77"/>
-      <c r="I60" s="24" t="s">
+      <c r="H66" s="73"/>
+      <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="37"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="38"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="38"/>
-    </row>
-    <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="84"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="39"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="89" t="s">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="25"/>
+    </row>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-    </row>
-    <row r="67" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
-    </row>
-    <row r="69" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="62"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="64"/>
-    </row>
-    <row r="70" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="62"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="64"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="70"/>
-    </row>
-    <row r="73" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="47" t="s">
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+    </row>
+    <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="86"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="88"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="58"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="60"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="60"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="5" t="s">
+      <c r="H79" s="43"/>
+      <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="87" t="str">
-        <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="83" t="str">
+        <f>IF(D10="","Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="F76" s="88" t="s">
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="F82" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J78" s="23" t="s">
-        <v>37</v>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="J84" s="23" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B19:D33 G19:I33 B61:I64 B68 G38:I55 B38:D55" name="Intervalo1_1"/>
+    <protectedRange sqref="C8:I9 D10:I10 B19:D33 G19:I33 B67:I70 B74:I77 B38:D61 G38:I61" name="Intervalo1"/>
   </protectedRanges>
-  <mergeCells count="48">
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B68:I71"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:H61"/>
+  <mergeCells count="50">
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B74:I77"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B65:F66"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:H66"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:F37"/>
@@ -10722,6 +9940,9 @@
     <mergeCell ref="G38:I43"/>
     <mergeCell ref="B50:D55"/>
     <mergeCell ref="G50:I55"/>
+    <mergeCell ref="B56:D61"/>
+    <mergeCell ref="G56:I61"/>
+    <mergeCell ref="B63:I63"/>
     <mergeCell ref="B44:D49"/>
     <mergeCell ref="G44:I49"/>
     <mergeCell ref="B19:D23"/>
@@ -10734,6 +9955,7 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B5:I5"/>
+    <mergeCell ref="D7:I7"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="D10:I10"/>
@@ -10744,16 +9966,15 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B7:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7 B8:I15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="B82:D82">
+    <cfRule type="expression" priority="2">
+      <formula>D10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:D76">
-    <cfRule type="expression" priority="1">
-      <formula>D10</formula>
+  <conditionalFormatting sqref="B12:I13 B14:H14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11142,7 +10363,95 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4118" r:id="rId21" name="Check Box 22">
+            <control shapeId="4114" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4115" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4116" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4117" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4118" r:id="rId25" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11164,7 +10473,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4119" r:id="rId22" name="Check Box 23">
+            <control shapeId="4119" r:id="rId26" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11186,7 +10495,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4120" r:id="rId23" name="Check Box 24">
+            <control shapeId="4120" r:id="rId27" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11208,403 +10517,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4121" r:id="rId24" name="Check Box 25">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4122" r:id="rId25" name="Check Box 26">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4123" r:id="rId26" name="Check Box 27">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4124" r:id="rId27" name="Check Box 28">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4125" r:id="rId28" name="Check Box 29">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4126" r:id="rId29" name="Check Box 30">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4127" r:id="rId30" name="Check Box 31">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4128" r:id="rId31" name="Check Box 32">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4129" r:id="rId32" name="Check Box 33">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4130" r:id="rId33" name="Check Box 34">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4132" r:id="rId34" name="Check Box 36">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>38</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4133" r:id="rId35" name="Check Box 37">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4134" r:id="rId36" name="Check Box 38">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>42</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4136" r:id="rId37" name="Check Box 40">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>50</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>52</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4137" r:id="rId38" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>51</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>53</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4138" r:id="rId39" name="Check Box 42">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>52</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>54</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4140" r:id="rId40" name="Check Box 44">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>44</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4141" r:id="rId41" name="Check Box 45">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>45</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="4142" r:id="rId42" name="Check Box 46">
+            <control shapeId="4121" r:id="rId28" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11637,8 +10550,8 @@
   </sheetPr>
   <dimension ref="B5:J99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A67" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11656,16 +10569,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -11682,308 +10595,308 @@
         <v>1</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="43" t="str">
         <f>Plan1!B6</f>
         <v>Setembro</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48" t="str">
+      <c r="C8" s="44" t="str">
         <f>'2º Sem - Agosto'!C8:I8</f>
-        <v>Relatório de acompanhamento Mensal TCC</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+        <v>Redução de disperdicio por excesso de produção.</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="48" t="str">
+      <c r="C9" s="44" t="str">
         <f>'2º Sem - Agosto'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="44" t="str">
         <f>'2º Sem - Agosto'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="str">
+      <c r="C12" s="45" t="str">
         <f>'2º Sem - Agosto'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="49" t="str">
         <f>'2º Sem - Agosto'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="57" t="str">
+      <c r="C14" s="53" t="str">
         <f>'2º Sem - Agosto'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
     </row>
     <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="64"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="67"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="64"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="64"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="64"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="64"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
@@ -11996,16 +10909,16 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
@@ -12018,432 +10931,432 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="82"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="78"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="79"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="83"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="83"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="83"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="83"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="83"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="83"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="79"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="83"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="83"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="79"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="83"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="83"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="83"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="83"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="79"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="83"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="79"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="79"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="83"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="83"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="79"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="83"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="79"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="83"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="79"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="83"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="79"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="79"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="83"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="79"/>
     </row>
     <row r="61" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="86"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
     </row>
     <row r="64" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="75" t="s">
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="75"/>
-      <c r="I65" s="76"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="72"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="77" t="s">
+      <c r="B66" s="69"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="77"/>
+      <c r="H66" s="73"/>
       <c r="I66" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="78"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
       <c r="I67" s="25"/>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
       <c r="I68" s="26"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="84"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
       <c r="I70" s="27"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="89"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
     </row>
     <row r="73" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="90"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="92"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="88"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="62"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="64"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="60"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="64"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="68"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="70"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="47" t="s">
+      <c r="G79" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="47"/>
+      <c r="H79" s="43"/>
       <c r="I79" s="5" t="s">
         <v>29</v>
       </c>
@@ -12458,18 +11371,18 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="87" t="str">
+      <c r="B82" s="83" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="F82" s="88" t="s">
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="F82" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="88"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="88"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J84" s="23" t="s">
@@ -12499,9 +11412,9 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
@@ -13170,8 +12083,8 @@
   </sheetPr>
   <dimension ref="B5:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:I78"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A64" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13189,16 +12102,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -13214,323 +12127,323 @@
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="93" t="str">
+      <c r="C8" s="89" t="str">
         <f>'2º Sem - Setembro'!C8:I8</f>
-        <v>Relatório de acompanhamento Mensal TCC</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+        <v>Redução de disperdicio por excesso de produção.</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="93" t="str">
+      <c r="C9" s="89" t="str">
         <f>'2º Sem - Setembro'!C9:I9</f>
         <v>Engenharia da Computação</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="93" t="str">
+      <c r="D10" s="89" t="str">
         <f>'2º Sem - Setembro'!D10:I10</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="str">
+      <c r="C12" s="45" t="str">
         <f>'2º Sem - Setembro'!C12:F12</f>
         <v>Igor Martins Ferreira</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="str">
+      <c r="C13" s="49" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C14" s="49" t="str">
         <f>'2º Sem - Setembro'!C13:F13</f>
         <v>Lucas Silva Sousa</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="53" t="str">
         <f>'2º Sem - Setembro'!C14:F14</f>
         <v>Renan Dias de Oliveira</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="64"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="63"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="65"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="66"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="67"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="64"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="64"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="65"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="64"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="64"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="64"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="64"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="60"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
@@ -13543,16 +12456,16 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
     </row>
     <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16"/>
@@ -13565,432 +12478,432 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="40"/>
+      <c r="G38" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="82"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="78"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="83"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="83"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="83"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="79"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="83"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="83"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="79"/>
     </row>
     <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="83"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="79"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="83"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="79"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="83"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="79"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="83"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="79"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="83"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="79"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="83"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="83"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="79"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="83"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="79"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="79"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="83"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="83"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="79"/>
     </row>
     <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="83"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="79"/>
     </row>
     <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="83"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="79"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="83"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="79"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="83"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="79"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="83"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="79"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="83"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="79"/>
     </row>
     <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="84"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="86"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="82"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="75" t="s">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="77" t="s">
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="77"/>
+      <c r="H67" s="73"/>
       <c r="I67" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="78"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
       <c r="I68" s="25"/>
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
       <c r="I69" s="26"/>
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="84"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
       <c r="I71" s="27"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
     </row>
     <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="90"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="92"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="88"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="64"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="60"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="62"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="64"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="60"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="68"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="70"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="66"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="47" t="s">
+      <c r="G80" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="43"/>
       <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
@@ -14005,18 +12918,18 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="87" t="str">
+      <c r="B83" s="83" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="F83" s="88" t="s">
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="F83" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="88"/>
-      <c r="H83" s="88"/>
-      <c r="I83" s="88"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="J85" s="23" t="s">
@@ -14660,10 +13573,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B5:J78"/>
+  <dimension ref="B5:J85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J102" sqref="A1:J102"/>
+      <selection activeCell="B12" sqref="B12:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14681,769 +13594,857 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="C8" s="89" t="str">
+        <f>'2º Sem - Setembro'!C8:I8</f>
+        <v>Redução de disperdicio por excesso de produção.</v>
+      </c>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="C9" s="89" t="str">
+        <f>'2º Sem - Setembro'!C9:I9</f>
+        <v>Engenharia da Computação</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="D10" s="89" t="str">
+        <f>'2º Sem - Setembro'!D10:I10</f>
+        <v>Eduardo Savino Gomes</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="47">
         <v>82150171</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <v>82150205</v>
       </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="52"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="22" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="51">
         <v>82150320</v>
       </c>
-      <c r="I14" s="60">
-        <v>82150320</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="53" t="str">
+        <f>'2º Sem - Setembro'!C14:F14</f>
+        <v>Renan Dias de Oliveira</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-    </row>
-    <row r="17" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="42" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="64"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="64"/>
+        <v>11</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="60"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="58"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="67"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="64"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="64"/>
+        <v>11</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="58"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="64"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="64"/>
+        <v>11</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="58"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="60"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-    </row>
-    <row r="36" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="41" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="42" t="s">
+      <c r="F38" s="40"/>
+      <c r="G38" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
+      <c r="H38" s="38"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="82"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="83"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="78"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="83"/>
+        <v>14</v>
+      </c>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="83"/>
+        <v>15</v>
+      </c>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="79"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="79"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="83"/>
-    </row>
-    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="83"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="79"/>
+    </row>
+    <row r="45" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="67"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="62"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="95"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="64"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="63"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="95"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="64"/>
+        <v>14</v>
+      </c>
+      <c r="G46" s="91"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="95"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="G47" s="91"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="60"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="62"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="91"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="60"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="58"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="65"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="59"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="61"/>
+    </row>
+    <row r="51" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="67"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="95"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="64"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="95"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="64"/>
+        <v>14</v>
+      </c>
+      <c r="G52" s="91"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="60"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="54"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="95"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="64"/>
+        <v>15</v>
+      </c>
+      <c r="G53" s="91"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="91"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="60"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="58"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="64"/>
-    </row>
-    <row r="55" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="63"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="65"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-    </row>
-    <row r="58" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="60"/>
+    </row>
+    <row r="56" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="59"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="61"/>
+    </row>
+    <row r="57" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="79"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="79"/>
+    </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="77" t="s">
-        <v>24</v>
-      </c>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="79"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="77"/>
       <c r="H60" s="77"/>
-      <c r="I60" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="79"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="79"/>
+    </row>
+    <row r="62" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="80"/>
       <c r="C62" s="81"/>
       <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="81"/>
       <c r="H62" s="81"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="84"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="34"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="89" t="s">
+      <c r="I62" s="82"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="71"/>
+      <c r="I66" s="72"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="73"/>
+      <c r="I67" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="74"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="76"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-    </row>
-    <row r="67" spans="2:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="62"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="64"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="62"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="64"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="68"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="70"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G73" s="47" t="s">
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+    </row>
+    <row r="74" spans="2:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="86"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="88"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="58"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="60"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="58"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="60"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="66"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="5" t="s">
+      <c r="H80" s="43"/>
+      <c r="I80" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="87" t="str">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="83" t="str">
         <f>IF(D10=0,"Assinatura do(a) Orientador(a)",D10)</f>
         <v>Eduardo Savino Gomes</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="F76" s="88" t="s">
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="F83" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J78" s="23" t="s">
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="J85" s="23" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B19:D33 G19:I33 B61:I64 B68 G38:I55 B38:D55" name="Intervalo1"/>
+    <protectedRange sqref="B20:D34 G20:I34 B68:I71 B75 B39:D62 G39:I62" name="Intervalo1"/>
   </protectedRanges>
-  <mergeCells count="48">
-    <mergeCell ref="B16:I16"/>
+  <mergeCells count="52">
+    <mergeCell ref="B17:I17"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
@@ -15453,51 +14454,55 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B19:D23"/>
-    <mergeCell ref="G19:I23"/>
-    <mergeCell ref="B24:D28"/>
-    <mergeCell ref="G24:I28"/>
-    <mergeCell ref="B29:D33"/>
-    <mergeCell ref="G29:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B59:F60"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B38:D43"/>
-    <mergeCell ref="G38:I43"/>
-    <mergeCell ref="B50:D55"/>
-    <mergeCell ref="G50:I55"/>
-    <mergeCell ref="B44:D49"/>
-    <mergeCell ref="G44:I49"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B68:I71"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:D24"/>
+    <mergeCell ref="G20:I24"/>
+    <mergeCell ref="B25:D29"/>
+    <mergeCell ref="G25:I29"/>
+    <mergeCell ref="B30:D34"/>
+    <mergeCell ref="G30:I34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B66:F67"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B39:D44"/>
+    <mergeCell ref="G39:I44"/>
+    <mergeCell ref="B51:D56"/>
+    <mergeCell ref="G51:I56"/>
+    <mergeCell ref="B57:D62"/>
+    <mergeCell ref="G57:I62"/>
+    <mergeCell ref="B45:D50"/>
+    <mergeCell ref="G45:I50"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B75:I78"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7 B8:I15">
+  <conditionalFormatting sqref="B8:I13 B7 B15:I16 B14:H14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76:D76">
+  <conditionalFormatting sqref="B83:D83">
     <cfRule type="expression" priority="1">
       <formula>D10</formula>
     </cfRule>
@@ -15517,13 +14522,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15539,13 +14544,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15561,13 +14566,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15583,13 +14588,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15605,14 +14610,14 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15627,13 +14632,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15649,13 +14654,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15671,13 +14676,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15693,13 +14698,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15715,13 +14720,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>133350</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15737,13 +14742,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15759,13 +14764,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15781,13 +14786,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15803,13 +14808,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15825,13 +14830,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>52</xdr:row>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15847,13 +14852,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15869,13 +14874,13 @@
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>52</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15885,19 +14890,107 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9242" r:id="rId21" name="Check Box 26">
+            <control shapeId="9234" r:id="rId21" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9235" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9236" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9237" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9242" r:id="rId25" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15907,19 +15000,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9243" r:id="rId22" name="Check Box 27">
+            <control shapeId="9243" r:id="rId26" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15929,19 +15022,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9244" r:id="rId23" name="Check Box 28">
+            <control shapeId="9244" r:id="rId27" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15951,19 +15044,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9245" r:id="rId24" name="Check Box 29">
+            <control shapeId="9245" r:id="rId28" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
@@ -16023,6 +15116,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
+    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
+    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
+    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16031,7 +15138,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100951F864CA035244EB7F6E6B9CAD39DD8" ma:contentTypeVersion="28" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4d3f40bcd57f6f3788c6a2039c87841b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ce03834f-a579-4ecb-b47e-e136bae11e47" xmlns:ns3="948e1b9c-bee8-44de-8cc6-706e5b780eae" xmlns:ns4="feadaf30-646e-4180-8499-c12b20b15a5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3814524ee6e7ba98c66e9da7e66bc" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16288,21 +15395,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Procedimento_x0020_Relacionado xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <Processo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">55</Processo>
-    <C_x00f3_digo xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">FSA - FTT18</C_x00f3_digo>
-    <Revis_x00e3_o xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">4</Revis_x00e3_o>
-    <Diretoria_x0020_Respons_x00e1_vel xmlns="ce03834f-a579-4ecb-b47e-e136bae11e47">2</Diretoria_x0020_Respons_x00e1_vel>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
+    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF40381-23F2-4A89-8986-B9057472B1AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -16310,7 +15422,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC6A78-1548-46C1-A293-FB862F1C8C0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16329,23 +15441,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF4BCC7-3A0E-4F11-8315-9CA8DFA05F4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="948e1b9c-bee8-44de-8cc6-706e5b780eae"/>
-    <ds:schemaRef ds:uri="ce03834f-a579-4ecb-b47e-e136bae11e47"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="feadaf30-646e-4180-8499-c12b20b15a5f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>